--- a/data/trans_dic/P38A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_dic/P38A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,51%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>88,83; 92,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>87,3; 91,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>87,51; 92,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>92,67; 95,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>92,86; 95,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>92,14; 95,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>91,56; 93,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>91,13; 93,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>90,75; 93,84</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,15%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>79,57; 83,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>79,26; 82,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>72,1; 81,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>84,57; 87,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>86,49; 89,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>83,69; 88,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>82,37; 84,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>83,22; 85,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>78,76; 84,17</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,95%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>86,67; 92,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>80,98; 87,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>84,82; 90,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>85,87; 91,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>85,19; 90,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>87,04; 91,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>87,16; 91,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>83,88; 88,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>86,98; 90,74</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,45%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>83,98; 86,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>82,23; 84,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>77,49; 84,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>88,55; 90,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>88,68; 90,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>86,66; 89,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>86,67; 88,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>85,91; 87,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>83,2; 86,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Estudios-trans_dic.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>92,75%</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,51; 92,81</t>
+          <t>87,82; 93,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,14; 95,41</t>
+          <t>92,62; 95,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>90,75; 93,84</t>
+          <t>91,03; 94,01</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>78,11%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>86,02%</t>
+          <t>85,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>78,65%</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,1; 81,03</t>
+          <t>52,88; 81,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,69; 88,53</t>
+          <t>76,81; 89,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,76; 84,17</t>
+          <t>64,02; 84,42</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>89,16%</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,82; 90,78</t>
+          <t>83,89; 90,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,04; 91,92</t>
+          <t>87,67; 92,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>86,98; 90,74</t>
+          <t>86,78; 90,83</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>77,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>88,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>83,1%</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,49; 84,05</t>
+          <t>61,01; 84,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,66; 89,92</t>
+          <t>81,28; 90,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,2; 86,75</t>
+          <t>72,29; 86,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,83; 92,7</t>
+          <t>88,77; 92,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,3; 91,7</t>
+          <t>87,51; 91,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,82; 93,02</t>
+          <t>87,67; 92,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,67; 95,19</t>
+          <t>92,84; 95,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,86; 95,93</t>
+          <t>92,96; 95,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,62; 95,66</t>
+          <t>92,34; 95,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,56; 93,84</t>
+          <t>91,65; 93,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>91,13; 93,62</t>
+          <t>91,04; 93,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,03; 94,01</t>
+          <t>91,24; 94,19</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,57; 83,13</t>
+          <t>79,7; 83,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,26; 82,7</t>
+          <t>79,24; 82,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,88; 81,27</t>
+          <t>50,42; 81,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,57; 87,82</t>
+          <t>84,59; 87,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,49; 89,33</t>
+          <t>86,18; 89,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,81; 89,57</t>
+          <t>75,63; 89,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,37; 84,92</t>
+          <t>82,55; 84,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,22; 85,53</t>
+          <t>83,16; 85,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>64,02; 84,42</t>
+          <t>66,55; 84,46</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,67; 92,44</t>
+          <t>86,83; 92,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>80,98; 87,37</t>
+          <t>80,83; 87,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,89; 90,88</t>
+          <t>82,93; 90,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,87; 91,93</t>
+          <t>85,74; 92,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,19; 90,72</t>
+          <t>84,98; 90,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,67; 92,26</t>
+          <t>88,06; 92,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>87,16; 91,4</t>
+          <t>87,44; 91,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,88; 88,23</t>
+          <t>83,91; 88,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>86,78; 90,83</t>
+          <t>86,64; 90,84</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,98; 86,5</t>
+          <t>84,03; 86,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,23; 84,74</t>
+          <t>82,31; 84,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,01; 84,12</t>
+          <t>60,38; 84,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,55; 90,6</t>
+          <t>88,49; 90,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,68; 90,84</t>
+          <t>88,74; 90,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,28; 90,46</t>
+          <t>82,3; 90,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>86,67; 88,23</t>
+          <t>86,63; 88,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,91; 87,53</t>
+          <t>85,91; 87,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,29; 86,87</t>
+          <t>72,11; 86,79</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han tomado la tensión alguna vez un/a profesional sanitario/a</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1171</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1523</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>876674</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>674705</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>466061</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1254489</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>939860</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>712287</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2131163</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1614564</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1178348</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>856837; 895275</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>658366; 691431</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>451457; 477109</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1236451; 1271537</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>923849; 953668</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>697642; 723544</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2105341; 2155124</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1589636; 1634416</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1159142; 1196653</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1575</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1660</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2625</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2891</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3235</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1591266</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1668062</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1645547</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1511753</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1741596</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1915741</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3103020</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3409658</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3561287</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1557923; 1623488</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1630507; 1699282</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1154735; 1858028</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1481357; 1539815</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1707476; 1767837</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1692553; 2002056</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3059409; 3148087</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3358800; 3450744</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3013496; 3824450</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>429220</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>458750</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>569022</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>408086</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>482287</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>596392</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>837306</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>941037</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1165414</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>414419; 440986</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>438967; 474758</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>536223; 587642</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>392316; 421222</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>464907; 496212</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>581596; 611592</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>817424; 856362</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>914737; 961242</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1132507; 1187338</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2701</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2678</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2942</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2934</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4917</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5635</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5637</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7859</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2897162</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2801517</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2680630</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3174327</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3163742</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3224420</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6071489</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5965259</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5905050</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2854803; 2941079</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2759826; 2842621</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2084265; 2905743</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3133281; 3207939</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3125465; 3200499</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3006985; 3314738</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6009993; 6124390</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5906289; 6027559</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5123869; 6167164</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>